--- a/CodeSystem-EspecialidadMedicaCS.xlsx
+++ b/CodeSystem-EspecialidadMedicaCS.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codigos definidos para las especialidades médicas de atención</t>
+    <t>Códigos definidos para las especialidades médicas de atención</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-EspecialidadMedicaCS.xlsx
+++ b/CodeSystem-EspecialidadMedicaCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-EspecialidadMedicaCS.xlsx
+++ b/CodeSystem-EspecialidadMedicaCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
